--- a/output/ITAÚ_29993583000180.xlsx
+++ b/output/ITAÚ_29993583000180.xlsx
@@ -724,10 +724,10 @@
         <v>44165</v>
       </c>
       <c r="B31">
-        <v>0.3907398199999998</v>
+        <v>0.3914837199999999</v>
       </c>
       <c r="C31">
-        <v>-0.005268129962350265</v>
+        <v>-0.004736052698523174</v>
       </c>
     </row>
   </sheetData>

--- a/output/ITAÚ_29993583000180.xlsx
+++ b/output/ITAÚ_29993583000180.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>ITAÚ DISTRIBUIDORES HEDGE PLUS II MULTIMERCADO FICFI</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,24 +383,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>43281</v>
       </c>
@@ -411,323 +405,236 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>43312</v>
       </c>
       <c r="B3">
         <v>-0.009393299999999938</v>
       </c>
-      <c r="C3">
-        <v>-0.009393299999999938</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>43343</v>
       </c>
       <c r="B4">
-        <v>0.002360029999999957</v>
-      </c>
-      <c r="C4">
         <v>0.01186477943264452</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>43373</v>
       </c>
       <c r="B5">
-        <v>-0.004257029999999995</v>
-      </c>
-      <c r="C5">
         <v>-0.006601480308427665</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>43404</v>
       </c>
       <c r="B6">
-        <v>0.02913423999999987</v>
-      </c>
-      <c r="C6">
         <v>0.03353402535194383</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>43434</v>
       </c>
       <c r="B7">
-        <v>0.02286114000000006</v>
-      </c>
-      <c r="C7">
         <v>-0.006095511893569716</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>43465</v>
       </c>
       <c r="B8">
-        <v>0.03584820999999994</v>
-      </c>
-      <c r="C8">
         <v>0.01269680652840122</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>43496</v>
       </c>
       <c r="B9">
-        <v>0.05323990999999983</v>
-      </c>
-      <c r="C9">
         <v>0.01678981517958111</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>43524</v>
       </c>
       <c r="B10">
-        <v>0.04009620000000003</v>
-      </c>
-      <c r="C10">
         <v>-0.01247931252434198</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>43555</v>
       </c>
       <c r="B11">
-        <v>0.04686575999999998</v>
-      </c>
-      <c r="C11">
         <v>0.006508590263093028</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>43585</v>
       </c>
       <c r="B12">
-        <v>0.05236360000000007</v>
-      </c>
-      <c r="C12">
         <v>0.005251714412743969</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>43616</v>
       </c>
       <c r="B13">
-        <v>0.05981439000000011</v>
-      </c>
-      <c r="C13">
         <v>0.007080052939877568</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>43646</v>
       </c>
       <c r="B14">
-        <v>0.09191914000000012</v>
-      </c>
-      <c r="C14">
         <v>0.03029280438436022</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>43677</v>
       </c>
       <c r="B15">
-        <v>0.09963630999999995</v>
-      </c>
-      <c r="C15">
         <v>0.007067528828187619</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>43708</v>
       </c>
       <c r="B16">
-        <v>0.12097424</v>
-      </c>
-      <c r="C16">
         <v>0.01940453384992358</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>43738</v>
       </c>
       <c r="B17">
-        <v>0.1165907399999999</v>
-      </c>
-      <c r="C17">
         <v>-0.00391043776349409</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>43769</v>
       </c>
       <c r="B18">
-        <v>0.1369359400000001</v>
-      </c>
-      <c r="C18">
         <v>0.01822082099659905</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>43799</v>
       </c>
       <c r="B19">
-        <v>0.1561530799999999</v>
-      </c>
-      <c r="C19">
         <v>0.01690257060569289</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>43830</v>
       </c>
       <c r="B20">
-        <v>0.18810354</v>
-      </c>
-      <c r="C20">
         <v>0.02763514672295808</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>43861</v>
       </c>
       <c r="B21">
-        <v>0.1968995100000002</v>
-      </c>
-      <c r="C21">
         <v>0.007403369911683111</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>43890</v>
       </c>
       <c r="B22">
-        <v>0.2126333600000001</v>
-      </c>
-      <c r="C22">
         <v>0.01314550625891719</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>43921</v>
       </c>
       <c r="B23">
-        <v>0.3311144499999998</v>
-      </c>
-      <c r="C23">
         <v>0.09770561647751452</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>43951</v>
       </c>
       <c r="B24">
-        <v>0.35107972</v>
-      </c>
-      <c r="C24">
         <v>0.01499891312876978</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>43982</v>
       </c>
       <c r="B25">
-        <v>0.35100194</v>
-      </c>
-      <c r="C25">
         <v>-5.75687717376816e-05</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>44012</v>
       </c>
       <c r="B26">
-        <v>0.3780908999999999</v>
-      </c>
-      <c r="C26">
         <v>0.02005101487863148</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>44043</v>
       </c>
       <c r="B27">
-        <v>0.3866587699999999</v>
-      </c>
-      <c r="C27">
         <v>0.006217202363066221</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>44074</v>
       </c>
       <c r="B28">
-        <v>0.40720449</v>
-      </c>
-      <c r="C28">
         <v>0.01481670937688584</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>44104</v>
       </c>
       <c r="B29">
-        <v>0.39066954</v>
-      </c>
-      <c r="C29">
         <v>-0.01175021122907305</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>44135</v>
       </c>
       <c r="B30">
-        <v>0.3981052200000001</v>
-      </c>
-      <c r="C30">
         <v>0.00534683459019325</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>44165</v>
       </c>
       <c r="B31">
-        <v>0.3914837199999999</v>
-      </c>
-      <c r="C31">
-        <v>-0.004736052698523174</v>
+        <v>-0.004805561057843799</v>
       </c>
     </row>
   </sheetData>
